--- a/data/trans_dic/P28$padre_2012-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P28$padre_2012-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>54,92; 66,75</t>
+          <t>55,16; 66,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>54,16; 66,35</t>
+          <t>54,52; 66,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56,26; 65,21</t>
+          <t>56,54; 65,19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,34; 67,79</t>
+          <t>58,25; 67,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54,16; 63,37</t>
+          <t>54,33; 63,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>57,69; 64,09</t>
+          <t>57,54; 63,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,99; 76,91</t>
+          <t>67,0; 77,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,23; 73,2</t>
+          <t>62,09; 72,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>66,31; 73,94</t>
+          <t>66,46; 73,62</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>50,65; 61,81</t>
+          <t>50,55; 61,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,73; 62,97</t>
+          <t>52,82; 63,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53,32; 61,3</t>
+          <t>53,1; 60,84</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,41; 72,87</t>
+          <t>58,2; 73,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>58,2; 71,84</t>
+          <t>59,0; 72,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,5; 70,39</t>
+          <t>60,59; 70,5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>67,44; 78,76</t>
+          <t>67,74; 78,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>65,51; 76,65</t>
+          <t>65,45; 76,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,13; 76,19</t>
+          <t>68,24; 75,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>64,28; 71,98</t>
+          <t>64,45; 72,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>64,86; 72,16</t>
+          <t>64,31; 71,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>65,84; 71,11</t>
+          <t>65,34; 70,94</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>49,95; 57,48</t>
+          <t>49,88; 57,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>51,65; 59,0</t>
+          <t>51,56; 58,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>51,89; 57,12</t>
+          <t>51,86; 57,15</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>61,14; 64,71</t>
+          <t>60,94; 64,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>60,41; 63,89</t>
+          <t>60,49; 63,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>61,41; 63,72</t>
+          <t>61,29; 63,8</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, fumaba su padre en el ambiente donde se crió</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>173655</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>165678</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>339333</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>156213; 189573</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>149225; 182646</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>314889; 363063</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>310618</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>299569</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>610187</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>287855; 334514</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>277186; 321816</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>577947; 641318</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>229751</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>220531</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>450283</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>213244; 245824</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>201747; 237187</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>427499; 473569</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>198886</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>212915</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>411800</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>178891; 218207</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>193858; 233047</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>382800; 438583</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>127392</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>131126</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>258519</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>112240; 140939</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>118407; 144856</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>238458; 277467</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>193371</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>193713</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>387084</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>178602; 207116</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>177847; 207736</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>365363; 406638</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>834</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>436416</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>455825</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>892240</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>411720; 459998</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>427924; 477990</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>852235; 925219</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>403042</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>432799</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>835842</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>375202; 432509</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>403752; 460203</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>796215; 877481</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2073131</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2112157</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>4185288</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2009374; 2131087</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2054776; 2169375</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>4102871; 4271005</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>